--- a/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a4_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a/NonEmpty_diff_a4_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6410256410256411</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="C3">
-        <v>0.5052192066805845</v>
+        <v>0.5031185031185031</v>
       </c>
       <c r="D3">
-        <v>0.6354166666666666</v>
+        <v>0.6292682926829268</v>
       </c>
       <c r="E3">
-        <v>0.504149377593361</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.6108108108108108</v>
+        <v>0.6598984771573604</v>
       </c>
       <c r="G3">
-        <v>0.4989775051124745</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,19 +481,19 @@
         <v>0.6557377049180327</v>
       </c>
       <c r="C4">
-        <v>0.487229862475442</v>
+        <v>0.4941860465116279</v>
       </c>
       <c r="D4">
-        <v>0.6796116504854369</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="E4">
-        <v>0.4651773981603154</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="F4">
-        <v>0.6601941747572816</v>
+        <v>0.6476190476190476</v>
       </c>
       <c r="G4">
-        <v>0.4670967741935484</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="H4">
         <v>0.496</v>
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7183098591549296</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="C5">
-        <v>0.484629294755877</v>
+        <v>0.4829443447037702</v>
       </c>
       <c r="D5">
-        <v>0.6578947368421053</v>
+        <v>0.6875</v>
       </c>
       <c r="E5">
-        <v>0.475390156062425</v>
+        <v>0.4815256257449345</v>
       </c>
       <c r="F5">
-        <v>0.6962025316455697</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="G5">
-        <v>0.4767580452920143</v>
+        <v>0.4839094159713945</v>
       </c>
       <c r="H5">
-        <v>0.488</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.6329113924050633</v>
       </c>
       <c r="C6">
-        <v>0.4753289473684211</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="D6">
-        <v>0.5797101449275363</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="E6">
-        <v>0.4853801169590643</v>
+        <v>0.4923976608187134</v>
       </c>
       <c r="F6">
-        <v>0.6065573770491803</v>
+        <v>0.453125</v>
       </c>
       <c r="G6">
-        <v>0.4801401869158878</v>
+        <v>0.4982497082847141</v>
       </c>
       <c r="H6">
-        <v>0.482</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C7">
-        <v>0.4714714714714714</v>
+        <v>0.4795144157814871</v>
       </c>
       <c r="D7">
-        <v>0.6486486486486487</v>
+        <v>0.620253164556962</v>
       </c>
       <c r="E7">
-        <v>0.4889148191365227</v>
+        <v>0.4928741092636579</v>
       </c>
       <c r="F7">
-        <v>0.65</v>
+        <v>0.578125</v>
       </c>
       <c r="G7">
-        <v>0.4878612716763006</v>
+        <v>0.4994192799070848</v>
       </c>
       <c r="H7">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6756756756756757</v>
+        <v>0.6219512195121951</v>
       </c>
       <c r="C8">
-        <v>0.4889807162534435</v>
+        <v>0.487977369165488</v>
       </c>
       <c r="D8">
-        <v>0.6162790697674418</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="E8">
-        <v>0.4797619047619048</v>
+        <v>0.4975845410628019</v>
       </c>
       <c r="F8">
-        <v>0.609375</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="G8">
-        <v>0.4912485414235706</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="H8">
-        <v>0.47</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C9">
-        <v>0.4882506527415144</v>
+        <v>0.490272373540856</v>
       </c>
       <c r="D9">
-        <v>0.550561797752809</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E9">
-        <v>0.4816176470588235</v>
+        <v>0.4982332155477032</v>
       </c>
       <c r="F9">
-        <v>0.6410256410256411</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="G9">
-        <v>0.4922526817640048</v>
+        <v>0.4894366197183099</v>
       </c>
       <c r="H9">
-        <v>0.46</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7692307692307693</v>
+        <v>0.7215189873417721</v>
       </c>
       <c r="C10">
-        <v>0.4858895705521473</v>
+        <v>0.4867788461538461</v>
       </c>
       <c r="D10">
-        <v>0.5612244897959183</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="E10">
-        <v>0.4831460674157304</v>
+        <v>0.5041128084606346</v>
       </c>
       <c r="F10">
-        <v>0.6067415730337079</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G10">
-        <v>0.4870848708487085</v>
+        <v>0.4847775175644028</v>
       </c>
       <c r="H10">
-        <v>0.474</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6962025316455697</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="C11">
-        <v>0.4827981651376147</v>
+        <v>0.4904386951631046</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E11">
-        <v>0.4831880448318804</v>
+        <v>0.5029308323563892</v>
       </c>
       <c r="F11">
-        <v>0.61</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="G11">
-        <v>0.4864532019704433</v>
+        <v>0.4789719626168225</v>
       </c>
       <c r="H11">
-        <v>0.474</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6744186046511628</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C12">
-        <v>0.4864572047670639</v>
+        <v>0.489451476793249</v>
       </c>
       <c r="D12">
-        <v>0.6046511627906976</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="E12">
-        <v>0.4767726161369193</v>
+        <v>0.5053254437869823</v>
       </c>
       <c r="F12">
-        <v>0.5681818181818182</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="G12">
-        <v>0.4897218863361548</v>
+        <v>0.4822274881516588</v>
       </c>
       <c r="H12">
-        <v>0.478</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.726027397260274</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="C13">
-        <v>0.4840698869475848</v>
+        <v>0.4944388270980788</v>
       </c>
       <c r="D13">
-        <v>0.6533333333333333</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="E13">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0.5633802816901409</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="G13">
-        <v>0.4904306220095694</v>
+        <v>0.4841849148418492</v>
       </c>
       <c r="H13">
-        <v>0.48</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7313432835820896</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="C14">
-        <v>0.4832535885167464</v>
+        <v>0.4933078393881453</v>
       </c>
       <c r="D14">
-        <v>0.6582278481012658</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E14">
-        <v>0.4768133174791914</v>
+        <v>0.4885954381752701</v>
       </c>
       <c r="F14">
-        <v>0.5833333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.4875739644970414</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="H14">
-        <v>0.49</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6857142857142857</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="C15">
-        <v>0.485972850678733</v>
+        <v>0.4981884057971014</v>
       </c>
       <c r="D15">
-        <v>0.5921052631578947</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="E15">
-        <v>0.4874251497005988</v>
+        <v>0.4880095923261391</v>
       </c>
       <c r="F15">
-        <v>0.5915492957746479</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="G15">
-        <v>0.4833729216152019</v>
+        <v>0.4887839433293979</v>
       </c>
       <c r="H15">
-        <v>0.488</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C16">
-        <v>0.4917606244579358</v>
+        <v>0.4939341421143847</v>
       </c>
       <c r="D16">
-        <v>0.5492957746478874</v>
+        <v>0.64</v>
       </c>
       <c r="E16">
-        <v>0.4951923076923077</v>
+        <v>0.4867149758454106</v>
       </c>
       <c r="F16">
-        <v>0.4931506849315068</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="G16">
-        <v>0.4844868735083532</v>
+        <v>0.4837545126353791</v>
       </c>
       <c r="H16">
-        <v>0.488</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7051282051282052</v>
+        <v>0.625</v>
       </c>
       <c r="C17">
-        <v>0.4926229508196721</v>
+        <v>0.4929107589658048</v>
       </c>
       <c r="D17">
-        <v>0.5205479452054794</v>
+        <v>0.6494845360824743</v>
       </c>
       <c r="E17">
-        <v>0.4982290436835891</v>
+        <v>0.4902200488997555</v>
       </c>
       <c r="F17">
-        <v>0.5333333333333333</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="G17">
-        <v>0.4805194805194805</v>
+        <v>0.496947496947497</v>
       </c>
       <c r="H17">
-        <v>0.506</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6753246753246753</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="C18">
-        <v>0.492845786963434</v>
+        <v>0.4980047885075818</v>
       </c>
       <c r="D18">
-        <v>0.5245901639344263</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="E18">
-        <v>0.4970273483947681</v>
+        <v>0.495</v>
       </c>
       <c r="F18">
-        <v>0.546875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G18">
-        <v>0.4791418355184744</v>
+        <v>0.5055762081784386</v>
       </c>
       <c r="H18">
-        <v>0.494</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7222222222222222</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C19">
-        <v>0.4931087289433385</v>
+        <v>0.4954337899543379</v>
       </c>
       <c r="D19">
-        <v>0.5064935064935064</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="E19">
-        <v>0.4874551971326165</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.5600000000000001</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G19">
-        <v>0.4748201438848921</v>
+        <v>0.4952038369304556</v>
       </c>
       <c r="H19">
-        <v>0.502</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7037037037037037</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="C20">
-        <v>0.4897209985315712</v>
+        <v>0.4952100221075903</v>
       </c>
       <c r="D20">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="E20">
-        <v>0.4921020656136088</v>
+        <v>0.4914634146341463</v>
       </c>
       <c r="F20">
-        <v>0.6470588235294118</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G20">
-        <v>0.4752116082224909</v>
+        <v>0.4908647990255786</v>
       </c>
       <c r="H20">
-        <v>0.504</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.735632183908046</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C21">
-        <v>0.4890459363957597</v>
+        <v>0.4967925873129009</v>
       </c>
       <c r="D21">
-        <v>0.5730337078651685</v>
+        <v>0.5125</v>
       </c>
       <c r="E21">
-        <v>0.4819277108433735</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="F21">
-        <v>0.5263157894736842</v>
+        <v>0.6463414634146342</v>
       </c>
       <c r="G21">
-        <v>0.4752714113389626</v>
+        <v>0.4832935560859188</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.691358024691358</v>
+        <v>0.6931818181818182</v>
       </c>
       <c r="C22">
-        <v>0.4843324250681199</v>
+        <v>0.4958620689655173</v>
       </c>
       <c r="D22">
-        <v>0.6</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="E22">
-        <v>0.4831730769230769</v>
+        <v>0.4963855421686747</v>
       </c>
       <c r="F22">
-        <v>0.6388888888888888</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G22">
-        <v>0.4863905325443787</v>
+        <v>0.4818840579710145</v>
       </c>
       <c r="H22">
-        <v>0.482</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6231884057971014</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="C23">
-        <v>0.4898626553302812</v>
+        <v>0.4950232249502323</v>
       </c>
       <c r="D23">
-        <v>0.6119402985074627</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="E23">
-        <v>0.4857142857142857</v>
+        <v>0.4886227544910179</v>
       </c>
       <c r="F23">
-        <v>0.6582278481012658</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="G23">
-        <v>0.4768683274021353</v>
+        <v>0.4921212121212121</v>
       </c>
       <c r="H23">
-        <v>0.484</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5975609756097561</v>
+        <v>0.7215189873417721</v>
       </c>
       <c r="C24">
-        <v>0.4943324937027708</v>
+        <v>0.4926517571884984</v>
       </c>
       <c r="D24">
-        <v>0.5595238095238095</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E24">
-        <v>0.4982035928143713</v>
+        <v>0.4927710843373494</v>
       </c>
       <c r="F24">
-        <v>0.5822784810126582</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="G24">
-        <v>0.4805825242718447</v>
+        <v>0.4830508474576271</v>
       </c>
       <c r="H24">
-        <v>0.488</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.684931506849315</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="C25">
-        <v>0.4972510690287111</v>
+        <v>0.4935384615384615</v>
       </c>
       <c r="D25">
-        <v>0.5487804878048781</v>
+        <v>0.6</v>
       </c>
       <c r="E25">
-        <v>0.5036319612590799</v>
+        <v>0.4957780458383595</v>
       </c>
       <c r="F25">
-        <v>0.4835164835164835</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G25">
-        <v>0.4909747292418772</v>
+        <v>0.4826762246117085</v>
       </c>
       <c r="H25">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.65625</v>
+        <v>0.75</v>
       </c>
       <c r="C26">
-        <v>0.4926943308007014</v>
+        <v>0.5008860011813349</v>
       </c>
       <c r="D26">
-        <v>0.5211267605633803</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="E26">
-        <v>0.5053128689492326</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="F26">
-        <v>0.5070422535211268</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="G26">
-        <v>0.4904534606205251</v>
+        <v>0.4796163069544365</v>
       </c>
       <c r="H26">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7272727272727273</v>
+        <v>0.734375</v>
       </c>
       <c r="C27">
-        <v>0.4934917940011319</v>
+        <v>0.5017064846416383</v>
       </c>
       <c r="D27">
-        <v>0.5967741935483871</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E27">
-        <v>0.4922894424673784</v>
+        <v>0.4952038369304556</v>
       </c>
       <c r="F27">
-        <v>0.53125</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="G27">
-        <v>0.481042654028436</v>
+        <v>0.4766467065868263</v>
       </c>
       <c r="H27">
-        <v>0.476</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7435897435897436</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C28">
-        <v>0.4931581828133552</v>
+        <v>0.5030269675288938</v>
       </c>
       <c r="D28">
-        <v>0.5764705882352941</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E28">
-        <v>0.4864226682408501</v>
+        <v>0.5029515938606848</v>
       </c>
       <c r="F28">
-        <v>0.7023809523809523</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="G28">
-        <v>0.4769775678866588</v>
+        <v>0.4841735052754982</v>
       </c>
       <c r="H28">
-        <v>0.492</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.746268656716418</v>
+        <v>0.675</v>
       </c>
       <c r="C29">
-        <v>0.4933262146289376</v>
+        <v>0.5056603773584906</v>
       </c>
       <c r="D29">
-        <v>0.5443037974683544</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E29">
-        <v>0.4898203592814371</v>
+        <v>0.498812351543943</v>
       </c>
       <c r="F29">
-        <v>0.647887323943662</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="G29">
-        <v>0.4695340501792115</v>
+        <v>0.476303317535545</v>
       </c>
       <c r="H29">
-        <v>0.504</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.640625</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="C30">
-        <v>0.4935333678220383</v>
+        <v>0.5015706806282723</v>
       </c>
       <c r="D30">
+        <v>0.4625</v>
+      </c>
+      <c r="E30">
         <v>0.5</v>
       </c>
-      <c r="E30">
-        <v>0.4891304347826087</v>
-      </c>
       <c r="F30">
-        <v>0.6216216216216216</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="G30">
-        <v>0.4844497607655502</v>
+        <v>0.4765807962529274</v>
       </c>
       <c r="H30">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.6865671641791045</v>
+        <v>0.6049382716049383</v>
       </c>
       <c r="C31">
-        <v>0.495995995995996</v>
+        <v>0.5</v>
       </c>
       <c r="D31">
-        <v>0.6428571428571429</v>
+        <v>0.6375</v>
       </c>
       <c r="E31">
-        <v>0.4875148632580262</v>
+        <v>0.4921592279855247</v>
       </c>
       <c r="F31">
-        <v>0.573170731707317</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="G31">
-        <v>0.486873508353222</v>
+        <v>0.4737470167064439</v>
       </c>
       <c r="H31">
-        <v>0.49</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6811594202898551</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="C32">
-        <v>0.4931707317073171</v>
+        <v>0.5049850448654037</v>
       </c>
       <c r="D32">
-        <v>0.65</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E32">
-        <v>0.4777911164465786</v>
+        <v>0.4865525672371638</v>
       </c>
       <c r="F32">
-        <v>0.6388888888888888</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="G32">
-        <v>0.4982035928143713</v>
+        <v>0.4657039711191336</v>
       </c>
       <c r="H32">
-        <v>0.472</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6527777777777778</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C33">
-        <v>0.4947817836812144</v>
+        <v>0.5055528730082086</v>
       </c>
       <c r="D33">
-        <v>0.6296296296296297</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="E33">
-        <v>0.4868421052631579</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="F33">
-        <v>0.5949367088607594</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>0.4689403166869671</v>
       </c>
       <c r="H33">
-        <v>0.478</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.71875</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="C34">
-        <v>0.4935483870967742</v>
+        <v>0.5056390977443609</v>
       </c>
       <c r="D34">
-        <v>0.55</v>
+        <v>0.620253164556962</v>
       </c>
       <c r="E34">
-        <v>0.4946745562130178</v>
+        <v>0.4933008526187576</v>
       </c>
       <c r="F34">
-        <v>0.5753424657534246</v>
+        <v>0.525</v>
       </c>
       <c r="G34">
-        <v>0.5088547815820543</v>
+        <v>0.4656862745098039</v>
       </c>
       <c r="H34">
-        <v>0.466</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6461538461538462</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C35">
-        <v>0.4930586654724586</v>
+        <v>0.5048143053645117</v>
       </c>
       <c r="D35">
-        <v>0.6060606060606061</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="E35">
+        <v>0.49338146811071</v>
+      </c>
+      <c r="F35">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="G35">
+        <v>0.4669073405535499</v>
+      </c>
+      <c r="H35">
         <v>0.5</v>
-      </c>
-      <c r="F35">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="G35">
-        <v>0.5076741440377804</v>
-      </c>
-      <c r="H35">
-        <v>0.47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6309523809523809</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C36">
-        <v>0.4953967558088558</v>
+        <v>0.5008912655971479</v>
       </c>
       <c r="D36">
-        <v>0.5365853658536586</v>
+        <v>0.6</v>
       </c>
       <c r="E36">
-        <v>0.5023866348448688</v>
+        <v>0.4958481613285884</v>
       </c>
       <c r="F36">
-        <v>0.5357142857142857</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G36">
-        <v>0.5102040816326531</v>
+        <v>0.4674556213017751</v>
       </c>
       <c r="H36">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6486486486486487</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="C37">
-        <v>0.4948320413436693</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="D37">
-        <v>0.5454545454545454</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="E37">
-        <v>0.5120772946859904</v>
+        <v>0.4941037735849056</v>
       </c>
       <c r="F37">
-        <v>0.6125</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G37">
-        <v>0.5096852300242131</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H37">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6266666666666667</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="C38">
-        <v>0.493070138597228</v>
+        <v>0.5059372349448685</v>
       </c>
       <c r="D38">
-        <v>0.5714285714285714</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="E38">
-        <v>0.5054811205846529</v>
+        <v>0.4994152046783626</v>
       </c>
       <c r="F38">
-        <v>0.4931506849315068</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="G38">
-        <v>0.5078219013237064</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="H38">
-        <v>0.472</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6944444444444444</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C39">
-        <v>0.4934426229508197</v>
+        <v>0.5039304923458833</v>
       </c>
       <c r="D39">
-        <v>0.6222222222222222</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E39">
-        <v>0.503030303030303</v>
+        <v>0.501187648456057</v>
       </c>
       <c r="F39">
-        <v>0.5975609756097561</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="G39">
-        <v>0.5125448028673835</v>
+        <v>0.4732461355529132</v>
       </c>
       <c r="H39">
-        <v>0.468</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.696969696969697</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="C40">
-        <v>0.4926206621459912</v>
+        <v>0.5030352084176447</v>
       </c>
       <c r="D40">
-        <v>0.6410256410256411</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="E40">
-        <v>0.5023980815347722</v>
+        <v>0.5017921146953405</v>
       </c>
       <c r="F40">
-        <v>0.6216216216216216</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="G40">
-        <v>0.505338078291815</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="H40">
-        <v>0.474</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6710526315789473</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="C41">
-        <v>0.4933903576982893</v>
+        <v>0.5059808612440191</v>
       </c>
       <c r="D41">
-        <v>0.5238095238095238</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="E41">
-        <v>0.5017709563164109</v>
+        <v>0.5104551045510455</v>
       </c>
       <c r="F41">
-        <v>0.55</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="G41">
-        <v>0.500587544065805</v>
+        <v>0.4821648216482165</v>
       </c>
       <c r="H41">
-        <v>0.474</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C42">
-        <v>0.4931245225362872</v>
+        <v>0.502149277061352</v>
       </c>
       <c r="D42">
-        <v>0.5774647887323944</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="E42">
-        <v>0.5129107981220657</v>
+        <v>0.5079754601226993</v>
       </c>
       <c r="F42">
-        <v>0.6212121212121212</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G42">
-        <v>0.513986013986014</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="H42">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7323943661971831</v>
+        <v>0.6708860759493671</v>
       </c>
       <c r="C43">
-        <v>0.4917602996254682</v>
+        <v>0.5022918258212375</v>
       </c>
       <c r="D43">
-        <v>0.6329113924050633</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="E43">
-        <v>0.5100354191263282</v>
+        <v>0.5036585365853659</v>
       </c>
       <c r="F43">
-        <v>0.5441176470588235</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="G43">
-        <v>0.5070422535211268</v>
+        <v>0.4832134292565947</v>
       </c>
       <c r="H43">
-        <v>0.466</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7368421052631579</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="C44">
-        <v>0.4924825815914925</v>
+        <v>0.5020530048525569</v>
       </c>
       <c r="D44">
-        <v>0.6216216216216216</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E44">
-        <v>0.5036319612590799</v>
+        <v>0.5017751479289941</v>
       </c>
       <c r="F44">
-        <v>0.4929577464788732</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="G44">
-        <v>0.5125448028673835</v>
+        <v>0.4684579439252337</v>
       </c>
       <c r="H44">
-        <v>0.462</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7215189873417721</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="C45">
-        <v>0.4913419913419914</v>
+        <v>0.5025547445255475</v>
       </c>
       <c r="D45">
-        <v>0.5652173913043478</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E45">
-        <v>0.5073170731707317</v>
+        <v>0.5143198090692124</v>
       </c>
       <c r="F45">
-        <v>0.5882352941176471</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="G45">
-        <v>0.5091130012150669</v>
+        <v>0.4646226415094339</v>
       </c>
       <c r="H45">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6575342465753424</v>
+        <v>0.6329113924050633</v>
       </c>
       <c r="C46">
-        <v>0.4920466595970308</v>
+        <v>0.5058865501248662</v>
       </c>
       <c r="D46">
-        <v>0.5760869565217391</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="E46">
-        <v>0.5079365079365079</v>
+        <v>0.5171597633136095</v>
       </c>
       <c r="F46">
-        <v>0.5357142857142857</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G46">
-        <v>0.4987893462469734</v>
+        <v>0.463785046728972</v>
       </c>
       <c r="H46">
-        <v>0.492</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.704225352112676</v>
+        <v>0.75</v>
       </c>
       <c r="C47">
-        <v>0.4946385333794535</v>
+        <v>0.5019264448336253</v>
       </c>
       <c r="D47">
-        <v>0.6385542168674698</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="E47">
-        <v>0.5078787878787879</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="F47">
-        <v>0.5555555555555556</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="G47">
-        <v>0.5035971223021583</v>
+        <v>0.4687131050767415</v>
       </c>
       <c r="H47">
-        <v>0.498</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7297297297297297</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="C48">
-        <v>0.4923806298679309</v>
+        <v>0.4991370383154988</v>
       </c>
       <c r="D48">
-        <v>0.6049382716049383</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="E48">
-        <v>0.5023923444976076</v>
+        <v>0.513126491646778</v>
       </c>
       <c r="F48">
-        <v>0.5974025974025974</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="G48">
-        <v>0.5047732696897375</v>
+        <v>0.4636471990464839</v>
       </c>
       <c r="H48">
-        <v>0.494</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7567567567567568</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="C49">
-        <v>0.4907161803713528</v>
+        <v>0.5006734006734007</v>
       </c>
       <c r="D49">
-        <v>0.6578947368421053</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="E49">
-        <v>0.4982248520710059</v>
+        <v>0.5060679611650486</v>
       </c>
       <c r="F49">
-        <v>0.589041095890411</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="G49">
-        <v>0.4970622796709753</v>
+        <v>0.4560770156438027</v>
       </c>
       <c r="H49">
-        <v>0.51</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7878787878787878</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C50">
-        <v>0.4900424420502775</v>
+        <v>0.5001648532805802</v>
       </c>
       <c r="D50">
-        <v>0.6923076923076923</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="E50">
-        <v>0.5023866348448688</v>
+        <v>0.5108433734939759</v>
       </c>
       <c r="F50">
-        <v>0.6857142857142857</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="G50">
-        <v>0.4994054696789536</v>
+        <v>0.4592326139088729</v>
       </c>
       <c r="H50">
-        <v>0.496</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1703,22 +1703,22 @@
         <v>0.775</v>
       </c>
       <c r="C51">
-        <v>0.4896066517428845</v>
+        <v>0.4996753246753247</v>
       </c>
       <c r="D51">
-        <v>0.6022727272727273</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E51">
-        <v>0.5119331742243437</v>
+        <v>0.5107398568019093</v>
       </c>
       <c r="F51">
-        <v>0.5764705882352941</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="G51">
-        <v>0.4964028776978417</v>
+        <v>0.4562874251497006</v>
       </c>
       <c r="H51">
-        <v>0.492</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8072289156626506</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="C52">
-        <v>0.4892608970309539</v>
+        <v>0.4971172325432415</v>
       </c>
       <c r="D52">
-        <v>0.5888888888888889</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="E52">
-        <v>0.5188794153471377</v>
+        <v>0.5150784077201448</v>
       </c>
       <c r="F52">
-        <v>0.4941176470588236</v>
+        <v>0.6</v>
       </c>
       <c r="G52">
-        <v>0.491504854368932</v>
+        <v>0.4619047619047619</v>
       </c>
       <c r="H52">
-        <v>0.52</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7272727272727273</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C53">
-        <v>0.4881914232442511</v>
+        <v>0.4981132075471698</v>
       </c>
       <c r="D53">
-        <v>0.573170731707317</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="E53">
-        <v>0.5201465201465202</v>
+        <v>0.5219976218787158</v>
       </c>
       <c r="F53">
-        <v>0.5</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="G53">
-        <v>0.5</v>
+        <v>0.4596199524940617</v>
       </c>
       <c r="H53">
-        <v>0.506</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6986301369863014</v>
+        <v>0.6625</v>
       </c>
       <c r="C54">
-        <v>0.4907040536421823</v>
+        <v>0.5009276437847866</v>
       </c>
       <c r="D54">
-        <v>0.52</v>
+        <v>0.625</v>
       </c>
       <c r="E54">
-        <v>0.5201900237529691</v>
+        <v>0.5136417556346382</v>
       </c>
       <c r="F54">
-        <v>0.6216216216216216</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="G54">
-        <v>0.5047169811320755</v>
+        <v>0.4646706586826347</v>
       </c>
       <c r="H54">
-        <v>0.498</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6901408450704225</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C55">
-        <v>0.4929703858809453</v>
+        <v>0.5022789425706472</v>
       </c>
       <c r="D55">
-        <v>0.5492957746478874</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="E55">
-        <v>0.5261904761904762</v>
+        <v>0.5077288941736029</v>
       </c>
       <c r="F55">
-        <v>0.6229508196721312</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="G55">
-        <v>0.5065398335315101</v>
+        <v>0.4507710557532622</v>
       </c>
       <c r="H55">
-        <v>0.48</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,22 +1830,22 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.704225352112676</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C56">
-        <v>0.4925110132158591</v>
+        <v>0.5008902077151335</v>
       </c>
       <c r="D56">
-        <v>0.5666666666666667</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="E56">
-        <v>0.5190930787589498</v>
+        <v>0.5076201641266119</v>
       </c>
       <c r="F56">
-        <v>0.5853658536585366</v>
+        <v>0.6375</v>
       </c>
       <c r="G56">
-        <v>0.5035377358490566</v>
+        <v>0.4531615925058548</v>
       </c>
       <c r="H56">
         <v>0.488</v>
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7142857142857143</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C57">
-        <v>0.4913344887348354</v>
+        <v>0.5</v>
       </c>
       <c r="D57">
-        <v>0.6027397260273972</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="E57">
-        <v>0.5162846803377563</v>
+        <v>0.5077105575326216</v>
       </c>
       <c r="F57">
-        <v>0.6533333333333333</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="G57">
-        <v>0.5005973715651135</v>
+        <v>0.4595238095238095</v>
       </c>
       <c r="H57">
-        <v>0.482</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7333333333333333</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="C58">
-        <v>0.4921941527107579</v>
+        <v>0.5</v>
       </c>
       <c r="D58">
-        <v>0.6219512195121951</v>
+        <v>0.6455696202531646</v>
       </c>
       <c r="E58">
-        <v>0.5159763313609468</v>
+        <v>0.5017543859649123</v>
       </c>
       <c r="F58">
-        <v>0.5844155844155844</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="G58">
-        <v>0.490521327014218</v>
+        <v>0.4676089517078916</v>
       </c>
       <c r="H58">
-        <v>0.496</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7023809523809523</v>
+        <v>0.675</v>
       </c>
       <c r="C59">
-        <v>0.491734379377977</v>
+        <v>0.5019762845849802</v>
       </c>
       <c r="D59">
-        <v>0.5285714285714286</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E59">
-        <v>0.5084337349397591</v>
+        <v>0.4940758293838863</v>
       </c>
       <c r="F59">
-        <v>0.5921052631578947</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="G59">
-        <v>0.4958083832335329</v>
+        <v>0.4767025089605735</v>
       </c>
       <c r="H59">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7160493827160493</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="C60">
-        <v>0.4918395573997233</v>
+        <v>0.4995827538247566</v>
       </c>
       <c r="D60">
-        <v>0.5714285714285714</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="E60">
-        <v>0.5101553166069295</v>
+        <v>0.5017462165308498</v>
       </c>
       <c r="F60">
-        <v>0.6823529411764706</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G60">
-        <v>0.4945848375451263</v>
+        <v>0.4717647058823529</v>
       </c>
       <c r="H60">
-        <v>0.498</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7195121951219512</v>
+        <v>0.691358024691358</v>
       </c>
       <c r="C61">
-        <v>0.4923747276688453</v>
+        <v>0.49945085118067</v>
       </c>
       <c r="D61">
-        <v>0.589041095890411</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E61">
-        <v>0.5036057692307693</v>
+        <v>0.5059382422802851</v>
       </c>
       <c r="F61">
-        <v>0.6352941176470588</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="G61">
-        <v>0.5036319612590799</v>
+        <v>0.4712230215827338</v>
       </c>
       <c r="H61">
-        <v>0.48</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5813953488372093</v>
+        <v>0.6708860759493671</v>
       </c>
       <c r="C62">
-        <v>0.4916934619506967</v>
+        <v>0.4995944849959448</v>
       </c>
       <c r="D62">
-        <v>0.5066666666666667</v>
+        <v>0.525</v>
       </c>
       <c r="E62">
-        <v>0.496437054631829</v>
+        <v>0.5011904761904762</v>
       </c>
       <c r="F62">
-        <v>0.6219512195121951</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="G62">
-        <v>0.5096385542168674</v>
+        <v>0.4803804994054697</v>
       </c>
       <c r="H62">
-        <v>0.478</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6741573033707865</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C63">
-        <v>0.4964351729601267</v>
+        <v>0.500133155792277</v>
       </c>
       <c r="D63">
-        <v>0.5675675675675675</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="E63">
-        <v>0.4976359338061466</v>
+        <v>0.4981949458483754</v>
       </c>
       <c r="F63">
-        <v>0.65</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="G63">
-        <v>0.5077473182359953</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="H63">
-        <v>0.486</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.6585365853658537</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="C64">
-        <v>0.4933645589383294</v>
+        <v>0.4994742376445847</v>
       </c>
       <c r="D64">
-        <v>0.4782608695652174</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="E64">
-        <v>0.4976359338061466</v>
+        <v>0.4853300733496332</v>
       </c>
       <c r="F64">
-        <v>0.6493506493506493</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="G64">
-        <v>0.5107142857142857</v>
+        <v>0.4737484737484737</v>
       </c>
       <c r="H64">
-        <v>0.494</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6794871794871795</v>
+        <v>0.625</v>
       </c>
       <c r="C65">
-        <v>0.4939974457215837</v>
+        <v>0.499353169469599</v>
       </c>
       <c r="D65">
-        <v>0.5857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E65">
-        <v>0.4947368421052631</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="F65">
-        <v>0.5949367088607594</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="G65">
-        <v>0.5094339622641509</v>
+        <v>0.4724220623501199</v>
       </c>
       <c r="H65">
-        <v>0.504</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7402597402597403</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C66">
-        <v>0.4959798994974874</v>
+        <v>0.5</v>
       </c>
       <c r="D66">
-        <v>0.5970149253731343</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="E66">
-        <v>0.485981308411215</v>
+        <v>0.4958183990442055</v>
       </c>
       <c r="F66">
-        <v>0.6</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="G66">
-        <v>0.5141509433962265</v>
+        <v>0.4798099762470309</v>
       </c>
       <c r="H66">
-        <v>0.496</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7777777777777778</v>
+        <v>0.654320987654321</v>
       </c>
       <c r="C67">
-        <v>0.4936708860759494</v>
+        <v>0.5012556504269211</v>
       </c>
       <c r="D67">
-        <v>0.4545454545454545</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="E67">
-        <v>0.4857482185273159</v>
+        <v>0.5011848341232228</v>
       </c>
       <c r="F67">
-        <v>0.6857142857142857</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="G67">
-        <v>0.5119904076738609</v>
+        <v>0.4870588235294118</v>
       </c>
       <c r="H67">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7738095238095238</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C68">
-        <v>0.4938875305623472</v>
+        <v>0.5003719315645921</v>
       </c>
       <c r="D68">
-        <v>0.5697674418604651</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E68">
-        <v>0.4845238095238095</v>
+        <v>0.5029797377830751</v>
       </c>
       <c r="F68">
-        <v>0.5675675675675675</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G68">
-        <v>0.5059665871121718</v>
+        <v>0.4875739644970414</v>
       </c>
       <c r="H68">
-        <v>0.502</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7710843373493976</v>
+        <v>0.75</v>
       </c>
       <c r="C69">
-        <v>0.4932301740812379</v>
+        <v>0.498533724340176</v>
       </c>
       <c r="D69">
-        <v>0.5542168674698795</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="E69">
-        <v>0.4771634615384616</v>
+        <v>0.4976076555023923</v>
       </c>
       <c r="F69">
-        <v>0.6351351351351351</v>
+        <v>0.6</v>
       </c>
       <c r="G69">
-        <v>0.5165876777251185</v>
+        <v>0.4898203592814371</v>
       </c>
       <c r="H69">
-        <v>0.502</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7763157894736842</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C70">
-        <v>0.4931867081042314</v>
+        <v>0.4981905910735827</v>
       </c>
       <c r="D70">
-        <v>0.6052631578947368</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="E70">
-        <v>0.4775212636695018</v>
+        <v>0.5</v>
       </c>
       <c r="F70">
-        <v>0.6027397260273972</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G70">
-        <v>0.5162064825930373</v>
+        <v>0.4863258026159334</v>
       </c>
       <c r="H70">
-        <v>0.504</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7111111111111111</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C71">
-        <v>0.4934179595674659</v>
+        <v>0.4985714285714286</v>
       </c>
       <c r="D71">
-        <v>0.5764705882352941</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="E71">
-        <v>0.4676258992805755</v>
+        <v>0.4975903614457831</v>
       </c>
       <c r="F71">
-        <v>0.574468085106383</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="G71">
-        <v>0.5209080047789725</v>
+        <v>0.4916267942583732</v>
       </c>
       <c r="H71">
-        <v>0.506</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7317073170731707</v>
+        <v>0.8</v>
       </c>
       <c r="C72">
-        <v>0.4945310681871073</v>
+        <v>0.4985862393967955</v>
       </c>
       <c r="D72">
-        <v>0.5945945945945946</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="E72">
-        <v>0.4736842105263158</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="F72">
-        <v>0.6506024096385542</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="G72">
-        <v>0.5223700120918985</v>
+        <v>0.5018359853121175</v>
       </c>
       <c r="H72">
-        <v>0.504</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6842105263157895</v>
+        <v>0.6582278481012658</v>
       </c>
       <c r="C73">
-        <v>0.4941580756013746</v>
+        <v>0.4983690587138863</v>
       </c>
       <c r="D73">
-        <v>0.5294117647058824</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E73">
-        <v>0.4727488151658768</v>
+        <v>0.4901234567901235</v>
       </c>
       <c r="F73">
-        <v>0.6125</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="G73">
-        <v>0.5125748502994012</v>
+        <v>0.4987684729064039</v>
       </c>
       <c r="H73">
-        <v>0.518</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.675</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C74">
-        <v>0.4945774966109354</v>
+        <v>0.4998850838887612</v>
       </c>
       <c r="D74">
-        <v>0.6111111111111112</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="E74">
-        <v>0.4757969303423849</v>
+        <v>0.4908647990255786</v>
       </c>
       <c r="F74">
-        <v>0.6790123456790124</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="G74">
-        <v>0.5101553166069295</v>
+        <v>0.4945454545454546</v>
       </c>
       <c r="H74">
-        <v>0.524</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7402597402597403</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C75">
-        <v>0.4948660714285714</v>
+        <v>0.4990990990990991</v>
       </c>
       <c r="D75">
-        <v>0.6</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="E75">
-        <v>0.4738717339667459</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="F75">
-        <v>0.6352941176470588</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="G75">
-        <v>0.5107913669064749</v>
+        <v>0.4994110718492344</v>
       </c>
       <c r="H75">
-        <v>0.512</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8055555555555556</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="C76">
-        <v>0.4938271604938271</v>
+        <v>0.4998890122086571</v>
       </c>
       <c r="D76">
-        <v>0.5945945945945946</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="E76">
-        <v>0.4827175208581645</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="F76">
-        <v>0.5833333333333334</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="G76">
-        <v>0.5138721351025332</v>
+        <v>0.5045977011494253</v>
       </c>
       <c r="H76">
-        <v>0.514</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.759493670886076</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C77">
-        <v>0.4940152339499456</v>
+        <v>0.5006578947368421</v>
       </c>
       <c r="D77">
-        <v>0.5974025974025974</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E77">
-        <v>0.4724220623501199</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="F77">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G77">
-        <v>0.5175757575757576</v>
+        <v>0.5092378752886836</v>
       </c>
       <c r="H77">
-        <v>0.508</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7195121951219512</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="C78">
-        <v>0.495582848524025</v>
+        <v>0.4990232255263729</v>
       </c>
       <c r="D78">
-        <v>0.5131578947368421</v>
+        <v>0.472972972972973</v>
       </c>
       <c r="E78">
-        <v>0.4746987951807229</v>
+        <v>0.4940334128878281</v>
       </c>
       <c r="F78">
-        <v>0.6493506493506493</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="G78">
-        <v>0.5188335358444714</v>
+        <v>0.5118764845605701</v>
       </c>
       <c r="H78">
-        <v>0.508</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7558139534883721</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C79">
-        <v>0.4955338153977031</v>
+        <v>0.4980678402747961</v>
       </c>
       <c r="D79">
-        <v>0.4931506849315068</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="E79">
-        <v>0.4750593824228028</v>
+        <v>0.5066828675577156</v>
       </c>
       <c r="F79">
         <v>0.5609756097560976</v>
       </c>
       <c r="G79">
-        <v>0.5136741973840666</v>
+        <v>0.5103280680437424</v>
       </c>
       <c r="H79">
-        <v>0.522</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6404494382022472</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C80">
-        <v>0.494327731092437</v>
+        <v>0.4988335100742312</v>
       </c>
       <c r="D80">
-        <v>0.6176470588235294</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="E80">
-        <v>0.4731308411214953</v>
+        <v>0.4957575757575757</v>
       </c>
       <c r="F80">
-        <v>0.6557377049180327</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="G80">
-        <v>0.5188679245283019</v>
+        <v>0.5078407720144753</v>
       </c>
       <c r="H80">
-        <v>0.52</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6630434782608695</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="C81">
-        <v>0.4963670334232925</v>
+        <v>0.4983193277310924</v>
       </c>
       <c r="D81">
-        <v>0.6190476190476191</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E81">
-        <v>0.4674418604651163</v>
+        <v>0.4969915764139591</v>
       </c>
       <c r="F81">
-        <v>0.6363636363636364</v>
+        <v>0.625</v>
       </c>
       <c r="G81">
-        <v>0.5144175317185697</v>
+        <v>0.5017921146953405</v>
       </c>
       <c r="H81">
-        <v>0.526</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7066666666666667</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C82">
-        <v>0.4962978198272316</v>
+        <v>0.4984417203407438</v>
       </c>
       <c r="D82">
-        <v>0.5625</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="E82">
-        <v>0.464075382803298</v>
+        <v>0.4969915764139591</v>
       </c>
       <c r="F82">
-        <v>0.6119402985074627</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="G82">
-        <v>0.512396694214876</v>
+        <v>0.5035799522673031</v>
       </c>
       <c r="H82">
-        <v>0.518</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7974683544303798</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="C83">
-        <v>0.4959514170040486</v>
+        <v>0.4988722575353701</v>
       </c>
       <c r="D83">
-        <v>0.5609756097560976</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="E83">
-        <v>0.4698224852071006</v>
+        <v>0.4940898345153664</v>
       </c>
       <c r="F83">
-        <v>0.6582278481012658</v>
+        <v>0.6075949367088608</v>
       </c>
       <c r="G83">
-        <v>0.5088967971530249</v>
+        <v>0.5053254437869823</v>
       </c>
       <c r="H83">
-        <v>0.522</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7530864197530864</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C84">
-        <v>0.493498699739948</v>
+        <v>0.4982684864534528</v>
       </c>
       <c r="D84">
-        <v>0.6438356164383562</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="E84">
-        <v>0.4726840855106889</v>
+        <v>0.4928571428571429</v>
       </c>
       <c r="F84">
-        <v>0.5733333333333334</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="G84">
-        <v>0.5088757396449705</v>
+        <v>0.5053892215568863</v>
       </c>
       <c r="H84">
-        <v>0.524</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7714285714285715</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="C85">
-        <v>0.4937636111661057</v>
+        <v>0.4977849375755135</v>
       </c>
       <c r="D85">
-        <v>0.6666666666666666</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="E85">
-        <v>0.4632701421800948</v>
+        <v>0.4928400954653938</v>
       </c>
       <c r="F85">
-        <v>0.4705882352941176</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="G85">
-        <v>0.5160142348754448</v>
+        <v>0.5018094089264173</v>
       </c>
       <c r="H85">
-        <v>0.514</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7833333333333333</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C86">
-        <v>0.4939382088384826</v>
+        <v>0.4995016942395854</v>
       </c>
       <c r="D86">
-        <v>0.6621621621621622</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="E86">
-        <v>0.4730538922155689</v>
+        <v>0.4922155688622755</v>
       </c>
       <c r="F86">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G86">
-        <v>0.5196662693682956</v>
+        <v>0.5126964933494559</v>
       </c>
       <c r="H86">
-        <v>0.502</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="C87">
-        <v>0.4927592199266267</v>
+        <v>0.5013763271726307</v>
       </c>
       <c r="D87">
-        <v>0.5833333333333334</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E87">
-        <v>0.475390156062425</v>
+        <v>0.4982035928143713</v>
       </c>
       <c r="F87">
-        <v>0.527027027027027</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G87">
-        <v>0.5126050420168067</v>
+        <v>0.5108695652173914</v>
       </c>
       <c r="H87">
-        <v>0.502</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6447368421052632</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="C88">
-        <v>0.4931140015302219</v>
+        <v>0.5014571595103944</v>
       </c>
       <c r="D88">
-        <v>0.6404494382022472</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="E88">
-        <v>0.4842995169082125</v>
+        <v>0.4946492271105826</v>
       </c>
       <c r="F88">
-        <v>0.5189873417721519</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="G88">
-        <v>0.5143198090692124</v>
+        <v>0.5168269230769231</v>
       </c>
       <c r="H88">
-        <v>0.494</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7066666666666667</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C89">
-        <v>0.4931662870159453</v>
+        <v>0.5008658841639407</v>
       </c>
       <c r="D89">
-        <v>0.6333333333333333</v>
+        <v>0.5373134328358209</v>
       </c>
       <c r="E89">
-        <v>0.4944920440636475</v>
+        <v>0.4939467312348668</v>
       </c>
       <c r="F89">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="G89">
-        <v>0.5102781136638452</v>
+        <v>0.5157384987893463</v>
       </c>
       <c r="H89">
-        <v>0.502</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6923076923076923</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C90">
-        <v>0.492114156965828</v>
+        <v>0.5022857142857143</v>
       </c>
       <c r="D90">
-        <v>0.5862068965517241</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="E90">
-        <v>0.5</v>
+        <v>0.4874551971326165</v>
       </c>
       <c r="F90">
-        <v>0.4831460674157304</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="G90">
-        <v>0.5005988023952096</v>
+        <v>0.5078031212484994</v>
       </c>
       <c r="H90">
-        <v>0.506</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6805555555555556</v>
+        <v>0.68</v>
       </c>
       <c r="C91">
-        <v>0.4922048997772829</v>
+        <v>0.5027301826398042</v>
       </c>
       <c r="D91">
-        <v>0.6025641025641025</v>
+        <v>0.5</v>
       </c>
       <c r="E91">
-        <v>0.5072992700729927</v>
+        <v>0.4874851013110846</v>
       </c>
       <c r="F91">
-        <v>0.527027027027027</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="G91">
-        <v>0.5079171741778319</v>
+        <v>0.5100830367734283</v>
       </c>
       <c r="H91">
-        <v>0.492</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6818181818181818</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C92">
-        <v>0.4924687729610581</v>
+        <v>0.5032582386892571</v>
       </c>
       <c r="D92">
-        <v>0.6373626373626373</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="E92">
-        <v>0.5113500597371565</v>
+        <v>0.4946492271105826</v>
       </c>
       <c r="F92">
-        <v>0.6025641025641025</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G92">
-        <v>0.5017835909631391</v>
+        <v>0.5005889281507656</v>
       </c>
       <c r="H92">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6470588235294118</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C93">
-        <v>0.4922016684802321</v>
+        <v>0.5043238270469181</v>
       </c>
       <c r="D93">
-        <v>0.6027397260273972</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E93">
-        <v>0.5071770334928229</v>
+        <v>0.490104772991851</v>
       </c>
       <c r="F93">
-        <v>0.6</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="G93">
-        <v>0.4899882214369847</v>
+        <v>0.4964953271028038</v>
       </c>
       <c r="H93">
-        <v>0.514</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7534246575342466</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="C94">
-        <v>0.4926312005751258</v>
+        <v>0.5036416605972324</v>
       </c>
       <c r="D94">
-        <v>0.647887323943662</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="E94">
-        <v>0.509478672985782</v>
+        <v>0.488399071925754</v>
       </c>
       <c r="F94">
-        <v>0.6060606060606061</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="G94">
-        <v>0.4840613931523022</v>
+        <v>0.494199535962877</v>
       </c>
       <c r="H94">
-        <v>0.528</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7532467532467533</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="C95">
-        <v>0.4916340334638661</v>
+        <v>0.5034370477568741</v>
       </c>
       <c r="D95">
-        <v>0.6049382716049383</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E95">
-        <v>0.5065398335315101</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="F95">
-        <v>0.6307692307692307</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="G95">
-        <v>0.4869976359338061</v>
+        <v>0.4934756820877818</v>
       </c>
       <c r="H95">
-        <v>0.522</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7333333333333333</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="C96">
-        <v>0.4919795522651155</v>
+        <v>0.5024991074616209</v>
       </c>
       <c r="D96">
-        <v>0.5641025641025641</v>
+        <v>0.5</v>
       </c>
       <c r="E96">
-        <v>0.5089605734767025</v>
+        <v>0.4804733727810651</v>
       </c>
       <c r="F96">
-        <v>0.6056338028169014</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="G96">
-        <v>0.4871194379391101</v>
+        <v>0.4887839433293979</v>
       </c>
       <c r="H96">
-        <v>0.512</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.717948717948718</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="C97">
-        <v>0.4916230366492146</v>
+        <v>0.5039759674854215</v>
       </c>
       <c r="D97">
-        <v>0.5416666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="E97">
-        <v>0.5113500597371565</v>
+        <v>0.4802395209580838</v>
       </c>
       <c r="F97">
-        <v>0.6282051282051282</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="G97">
-        <v>0.4928909952606635</v>
+        <v>0.4934756820877818</v>
       </c>
       <c r="H97">
-        <v>0.51</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C98">
-        <v>0.4918825561312608</v>
+        <v>0.5042914696093886</v>
       </c>
       <c r="D98">
-        <v>0.6164383561643836</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="E98">
-        <v>0.508235294117647</v>
+        <v>0.4798099762470309</v>
       </c>
       <c r="F98">
-        <v>0.5882352941176471</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="G98">
-        <v>0.4881516587677725</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="H98">
-        <v>0.514</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7173913043478261</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="C99">
-        <v>0.4921501706484642</v>
+        <v>0.5032023541630604</v>
       </c>
       <c r="D99">
-        <v>0.5846153846153846</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="E99">
-        <v>0.5058411214953271</v>
+        <v>0.4808612440191388</v>
       </c>
       <c r="F99">
-        <v>0.6285714285714286</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="G99">
-        <v>0.4899408284023669</v>
+        <v>0.4845238095238095</v>
       </c>
       <c r="H99">
-        <v>0.51</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6704545454545454</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C100">
-        <v>0.4910881004922764</v>
+        <v>0.5042999656002752</v>
       </c>
       <c r="D100">
-        <v>0.5084745762711864</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="E100">
-        <v>0.5047058823529412</v>
+        <v>0.4781553398058253</v>
       </c>
       <c r="F100">
-        <v>0.6142857142857143</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G100">
-        <v>0.4911242603550296</v>
+        <v>0.4945321992709599</v>
       </c>
       <c r="H100">
-        <v>0.516</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6626506024096386</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="C101">
-        <v>0.4918418839360807</v>
+        <v>0.5039075773020727</v>
       </c>
       <c r="D101">
-        <v>0.6172839506172839</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="E101">
-        <v>0.5071258907363421</v>
+        <v>0.4832134292565947</v>
       </c>
       <c r="F101">
-        <v>0.6279069767441861</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G101">
-        <v>0.4849578820697955</v>
+        <v>0.4916467780429594</v>
       </c>
       <c r="H101">
-        <v>0.536</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
